--- a/lab4/reference/微程序地址转移逻辑真值表.xlsx
+++ b/lab4/reference/微程序地址转移逻辑真值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12060"/>
+    <workbookView windowWidth="22665" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="组合逻辑真值表" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -257,19 +257,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -281,23 +280,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -313,7 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,7 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,14 +341,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,30 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,7 +438,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,67 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +510,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +576,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +705,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,24 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +788,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -806,8 +806,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,148 +816,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
